--- a/Team-Data/2007-08/3-20-2007-08.xlsx
+++ b/Team-Data/2007-08/3-20-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -816,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474</v>
+        <v>0.476</v>
       </c>
       <c r="L3" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="O3" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P3" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>9.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
         <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA3" t="n">
         <v>22.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -965,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
@@ -980,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -989,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1123,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
         <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
@@ -1242,28 +1309,28 @@
         <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O5" t="n">
         <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.749</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S5" t="n">
         <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V5" t="n">
         <v>14.5</v>
@@ -1284,13 +1351,13 @@
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1302,10 +1369,10 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1329,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1341,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>16</v>
@@ -1350,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1362,10 +1429,10 @@
         <v>13</v>
       </c>
       <c r="BB5" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC5" t="n">
         <v>20</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1532,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
         <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>0.638</v>
+        <v>0.647</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,16 +1661,16 @@
         <v>36.7</v>
       </c>
       <c r="J7" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N7" t="n">
         <v>0.356</v>
@@ -1615,28 +1682,28 @@
         <v>25.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T7" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V7" t="n">
         <v>13.1</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
@@ -1648,34 +1715,34 @@
         <v>21.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
@@ -1702,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
         <v>21</v>
@@ -1714,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
         <v>22</v>
@@ -1726,10 +1793,10 @@
         <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1857,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,7 +2100,7 @@
         <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
@@ -2087,7 +2154,7 @@
         <v>13</v>
       </c>
       <c r="BA9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2239,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="n">
         <v>5</v>
@@ -2394,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
@@ -2433,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>20</v>
@@ -2603,7 +2670,7 @@
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2612,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2624,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2800,7 +2867,7 @@
         <v>16</v>
       </c>
       <c r="AV13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2871,25 +2938,25 @@
         <v>82.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>7.6</v>
       </c>
       <c r="M14" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R14" t="n">
         <v>10.8</v>
@@ -2898,13 +2965,13 @@
         <v>33.2</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.199999999999999</v>
@@ -2919,16 +2986,16 @@
         <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2946,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>6</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>20</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3528,7 +3595,7 @@
         <v>18</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3674,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3865,7 +3932,7 @@
         <v>20</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
@@ -4059,7 +4126,7 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
         <v>12</v>
@@ -4083,7 +4150,7 @@
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -4390,10 +4457,10 @@
         <v>7</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
@@ -4438,7 +4505,7 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW22" t="n">
         <v>28</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>16</v>
@@ -4629,7 +4696,7 @@
         <v>13</v>
       </c>
       <c r="AY23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ23" t="n">
         <v>6</v>
@@ -4638,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="BB23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>5.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
         <v>5</v>
@@ -4802,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="n">
         <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.662</v>
+        <v>0.657</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
@@ -5234,7 +5301,7 @@
         <v>35.6</v>
       </c>
       <c r="J27" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.454</v>
@@ -5243,10 +5310,10 @@
         <v>7.6</v>
       </c>
       <c r="M27" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O27" t="n">
         <v>16.7</v>
@@ -5255,7 +5322,7 @@
         <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R27" t="n">
         <v>9.800000000000001</v>
@@ -5264,10 +5331,10 @@
         <v>31.4</v>
       </c>
       <c r="T27" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U27" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V27" t="n">
         <v>12.8</v>
@@ -5288,16 +5355,16 @@
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF27" t="n">
         <v>7</v>
@@ -5309,7 +5376,7 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>27</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5730,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -5762,49 +5829,49 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="n">
         <v>45</v>
       </c>
       <c r="F30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.643</v>
+        <v>0.652</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="J30" t="n">
         <v>80.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.496</v>
+        <v>0.497</v>
       </c>
       <c r="L30" t="n">
         <v>4.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O30" t="n">
         <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R30" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S30" t="n">
         <v>29.3</v>
@@ -5816,7 +5883,7 @@
         <v>26.3</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
@@ -5825,22 +5892,22 @@
         <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-20-2007-08</t>
+          <t>2008-03-20</t>
         </is>
       </c>
     </row>
